--- a/calcs_xpz.xlsx
+++ b/calcs_xpz.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>fPWM</t>
   </si>
@@ -48,16 +48,13 @@
     <t>Calc</t>
   </si>
   <si>
-    <t>Meas</t>
-  </si>
-  <si>
     <t>Steps</t>
   </si>
   <si>
-    <t>Base</t>
-  </si>
-  <si>
     <t>Min</t>
+  </si>
+  <si>
+    <t>#</t>
   </si>
 </sst>
 </file>
@@ -113,11 +110,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -136,13 +134,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>399832</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>57018</xdr:rowOff>
@@ -462,171 +460,158 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>504</v>
+        <v>487</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <f>1/B2 *1000000</f>
-        <v>1984.1269841269841</v>
+        <v>2053.3880903490763</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <f>1900/B3*255</f>
-        <v>244.18799999999999</v>
-      </c>
-      <c r="C5">
-        <v>240</v>
-      </c>
-      <c r="D5">
-        <v>1960</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>235.95149999999998</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6">
         <f>1525/B3*255</f>
-        <v>195.99300000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>189.38212499999997</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <f>(B6+B8)/2</f>
-        <v>192.78000000000003</v>
-      </c>
-      <c r="C7">
-        <v>19</v>
-      </c>
-      <c r="D7">
-        <v>1540</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>186.27749999999997</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8">
         <f>1475/B3*255</f>
-        <v>189.56700000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>183.17287499999998</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B9">
         <f>1100/B3*255</f>
-        <v>141.37200000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>136.6035</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <f>(255-MAX(B5:B9))/255*B3</f>
+        <v>153.38809034907615</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <f>B5-B6</f>
-        <v>48.194999999999965</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46.569375000000008</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13">
-        <v>31250</v>
-      </c>
-      <c r="C13">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15">
-        <f>B13/C13</f>
-        <v>62.003968253968253</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F16">
-        <f>1/0.0041</f>
-        <v>243.90243902439022</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="3">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19">
-        <f>B17-B18</f>
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <f>B15-B16</f>
         <v>50</v>
       </c>
     </row>
